--- a/assets/css/Manual Testing.xlsx
+++ b/assets/css/Manual Testing.xlsx
@@ -1,30 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameennoor/Desktop/README/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A4C25-E8FB-D148-A8CF-322F1DC8C52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13900D0F-9405-4DE6-BAA5-4CBEB82A7DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>ActiveBeat Center</t>
   </si>
   <si>
+    <t>Website Link:</t>
+  </si>
+  <si>
+    <t>https://ameennoor.github.io/activeBeat-center/</t>
+  </si>
+  <si>
     <t>Test ID</t>
   </si>
   <si>
@@ -55,55 +74,7 @@
     <t>T001</t>
   </si>
   <si>
-    <t>Safari-MacBook Pro 13.3"</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>iphone 7 plus</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>Social Media</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>Book a class Button</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>Book a class Form</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>Submit Button</t>
-  </si>
-  <si>
-    <t>T007</t>
-  </si>
-  <si>
-    <t>Contact Form</t>
-  </si>
-  <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>Send Button</t>
-  </si>
-  <si>
-    <t>T009</t>
+    <t>Logo/ Navigation</t>
   </si>
   <si>
     <t>(1) Click on the website link provided above.
@@ -111,13 +82,22 @@
 (3) Click on the ActiveBeat Center logo positioned on the top left side of the page.</t>
   </si>
   <si>
+    <t>Safari-MacBook Pro 13.3"</t>
+  </si>
+  <si>
     <t>☑️</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Logo/ Navigation</t>
+    <t>Safari-iphone 7 plus</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>Social Media</t>
   </si>
   <si>
     <t>(1) Click on the website link provided above.
@@ -125,19 +105,43 @@
 (3) Explore the social media icons for Facebook, Twitter, YouTube, and TikTok. Click on each icon to verify the links, and they will open in a new tab.</t>
   </si>
   <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>Book a class Button</t>
+  </si>
+  <si>
     <t>(1) Click on the provided website link above.
 (2) Navigate to the Classes page.
 (3) Scroll down the page until you find the "Book a class" button. Click on it to proceed.</t>
   </si>
   <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>Book a class Form</t>
+  </si>
+  <si>
+    <t>(1) Visit the Classes Page and locate the "Book a class" button. Click on it.
+(2) Prior to filling in the form data, click on the "Submit" button.
+(3) Confirm the validation messages or requirements.</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>Submit Button</t>
+  </si>
+  <si>
     <t>(1) Visit the Classes page and click on the "Book a class" button.
 (2) Fill in all the required information in the form.
 (3) Click on the "Submit" button to proceed. Verify that the button is functioning correctly and that you are redirected to the thank you page.</t>
   </si>
   <si>
-    <t>(1) Visit the Classes Page and locate the "Book a class" button. Click on it.
-(2) Prior to filling in the form data, click on the "Submit" button.
-(3) Confirm the validation messages or requirements.</t>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>Contact Form</t>
   </si>
   <si>
     <t>(1) Click on the provided website link above, visit the Contact Us Page.
@@ -145,17 +149,17 @@
 (3) Confirm the validation messages or requirements.</t>
   </si>
   <si>
-    <t>Website Link:</t>
-  </si>
-  <si>
-    <t>https://ameennoor.github.io/activeBeat-center/</t>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>Send Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +227,11 @@
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -297,8 +306,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,24 +651,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="68.5" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="35.1">
       <c r="A1" s="4"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -673,13 +682,13 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -688,469 +697,408 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.95" thickBot="1">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="33" customHeight="1" thickBot="1">
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29.1" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5">
         <v>45086</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I7" s="5">
         <v>45086</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39" customHeight="1" thickBot="1">
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I8" s="5">
         <v>45086</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I9" s="5">
         <v>45086</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I10" s="5">
         <v>45086</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32.1" customHeight="1" thickBot="1">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="5">
         <v>45086</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.1" customHeight="1" thickBot="1">
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" s="5">
         <v>45086</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.1" customHeight="1" thickBot="1">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45086</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="5">
-        <v>45086</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" s="5">
         <v>45086</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32.1" customHeight="1" thickBot="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I15" s="5">
         <v>45086</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="5">
         <v>45086</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45086</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="5">
-        <v>45086</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5">
         <v>45086</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30.75" customHeight="1" thickBot="1">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="5">
         <v>45086</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="24" customHeight="1">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="27" customHeight="1">
       <c r="F21" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
